--- a/espn_scrapper/IPL/Kolkata Knight Riders/Sunil Narine .xlsx
+++ b/espn_scrapper/IPL/Kolkata Knight Riders/Sunil Narine .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,9 +752,79 @@
         <v>107.14</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve"> Oct 29 2020</v>
+      </c>
+      <c r="B11" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Super Kings won by 6 wickets</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve">Sunil Narine </v>
+      </c>
+      <c r="G11" t="str">
+        <v>7</v>
+      </c>
+      <c r="H11" t="str">
+        <v>7</v>
+      </c>
+      <c r="I11" t="str">
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <v>100.00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v xml:space="preserve"> Sep 26 2020</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C12" t="str">
+        <v>KKR won by 7 wickets (with 12 balls remaining)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F12" t="str">
+        <v xml:space="preserve">Sunil Narine </v>
+      </c>
+      <c r="G12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2</v>
+      </c>
+      <c r="I12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
   </ignoredErrors>
 </worksheet>
 </file>